--- a/singleFundStyle.xlsx
+++ b/singleFundStyle.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tangheng\Dropbox\暑期实习\代码\mutual-fund-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tangheng\Dropbox\summerIntern\代码\mutual-fund-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="6510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="22">
   <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,15 +55,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>经历几个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛熊市（1：牛，0：震荡市，-1：熊）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经历几个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛熊市（1：牛，0：震荡市，-1：熊）</t>
+    <t>总天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,27 +79,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fundcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001898.OF</t>
+    <t>910021.OF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>易方达大健康主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fund setup date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,22 +112,6 @@
   </si>
   <si>
     <t>fundmanagers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萧楠(20170927至今)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨桢霄(20170927至今)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +335,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -687,1162 +665,1124 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="12">
-        <v>43005</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
       </c>
       <c r="D2" s="12">
-        <v>43005</v>
+        <v>43102</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="F2" s="11">
-        <v>79</v>
-      </c>
-      <c r="G2" s="11">
-        <v>18.425869432580843</v>
+        <v>16</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="12">
-        <v>43124</v>
-      </c>
-      <c r="E3" s="11">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>110</v>
-      </c>
-      <c r="G3" s="11">
-        <v>50.914285714285711</v>
-      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="H3" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12">
-        <v>43292</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="H4" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1855,30 +1795,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" customWidth="1"/>
-    <col min="7" max="7" width="4.265625" customWidth="1"/>
-    <col min="8" max="10" width="9.1328125" style="1"/>
+    <col min="7" max="7" width="3.53125" style="11" customWidth="1"/>
+    <col min="8" max="10" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -1929,7 +1869,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G7" t="s">
+      <c r="G7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="3" t="str">
@@ -1946,7 +1886,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G8" t="s">
+      <c r="G8" s="11" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="str">
@@ -1963,7 +1903,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G9" t="s">
+      <c r="G9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="8" t="str">
@@ -1979,14 +1919,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="H10" s="1" t="s">
+    <row r="10" spans="1:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="15" t="s">
         <v>5</v>
       </c>
     </row>

--- a/singleFundStyle.xlsx
+++ b/singleFundStyle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="6510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="6510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="25">
   <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,59 +59,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161005.OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国天惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund setup date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bull_bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundmanagers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱少醒(20051116至今)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>牛熊市（1：牛，0：震荡市，-1：熊）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>平均排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>910021.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fund setup date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bull_bear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundmanagers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,9 +347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,1143 +655,1181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.46484375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.73046875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="12">
+        <v>38672</v>
+      </c>
+      <c r="D2" s="12">
+        <v>41430</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>348</v>
+      </c>
+      <c r="G2" s="11">
+        <v>30.882352941176471</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="14">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12">
+        <v>41778</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>389</v>
+      </c>
+      <c r="G3" s="11">
+        <v>30.275229357798164</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12">
+        <v>42167</v>
+      </c>
+      <c r="E4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>230</v>
+      </c>
+      <c r="G4" s="11">
+        <v>31.670281995661604</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12">
+        <v>42397</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>308</v>
+      </c>
+      <c r="G5" s="11">
+        <v>39.91769547325103</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12">
+        <v>42705</v>
+      </c>
+      <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="12">
-        <v>43102</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="F6" s="11">
+        <v>160</v>
+      </c>
+      <c r="G6" s="11">
+        <v>26.877470355731226</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12">
+        <v>42865</v>
+      </c>
+      <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
-        <v>16</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="H3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="H4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
+      <c r="F7" s="11">
+        <v>259</v>
+      </c>
+      <c r="G7" s="11">
+        <v>27.376425855513308</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="12">
+        <v>43124</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>196</v>
+      </c>
+      <c r="G8" s="11">
+        <v>28.034188034188034</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="12">
+        <v>43320</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1795,97 +1842,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" customWidth="1"/>
-    <col min="7" max="7" width="3.53125" style="11" customWidth="1"/>
-    <col min="8" max="10" width="9.06640625" style="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="3.5" style="11" customWidth="1"/>
+    <col min="8" max="10" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>956</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>18.425869432580843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>32.596452638622125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>29.620972599303954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1</v>
       </c>
       <c r="B4">
-        <v>110</v>
+        <v>426</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>50.914285714285711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>29.997337356110386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="3" t="str">
         <f>IF(AND(D4&gt;0,D4&lt;30),ROUND(D4,2)&amp;"%","")</f>
-        <v/>
+        <v>30%</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>IF(AND(D3&gt;0,D3&lt;30),ROUND(D3,2)&amp;"%","")</f>
-        <v/>
+        <v>29.62%</v>
       </c>
       <c r="J7" s="2" t="str">
         <f>IF(AND(D2&gt;0,D2&lt;30),ROUND(D2,2)&amp;"%","")</f>
-        <v>18.43%</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G8" s="11" t="s">
         <v>1</v>
       </c>
@@ -1899,16 +1946,16 @@
       </c>
       <c r="J8" s="7" t="str">
         <f>IF(AND(D2&gt;=30,D2&lt;50),ROUND(D2,2)&amp;"%","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>32.6%</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="8" t="str">
         <f>IF(D4&gt;=50,ROUND(D4,2)&amp;"%","")</f>
-        <v>50.91%</v>
+        <v/>
       </c>
       <c r="I9" s="9" t="str">
         <f>IF(D3&gt;=50,ROUND(D3,2)&amp;"%","")</f>
@@ -1919,14 +1966,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H10" s="15" t="s">
+    <row r="10" spans="1:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>5</v>
       </c>
     </row>

--- a/singleFundStyle.xlsx
+++ b/singleFundStyle.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="30">
   <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>平均排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛熊市（1：牛，0：震荡市，-1：熊）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>经历几个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,11 +83,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fundcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161005.OF</t>
+    <t>180031.OF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,7 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>富国天惠</t>
+    <t>银华中小盘精选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,19 +127,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朱少醒(20051116至今)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛熊市（1：牛，0：震荡市，-1：熊）</t>
+    <t>廖平(20120620-20130806)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金斌(20120620-20130719)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王华(20130806-20160708)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晓星(20150707至今)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,26 +379,33 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FF767171"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFD966"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFF23D49"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF767171"/>
+      <color rgb="FFFFD966"/>
+      <color rgb="FFF23D49"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -655,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -674,292 +701,292 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="12">
-        <v>38672</v>
+        <v>41080</v>
       </c>
       <c r="D2" s="12">
-        <v>41430</v>
+        <v>42192</v>
       </c>
       <c r="E2" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="11">
-        <v>348</v>
+        <v>205</v>
       </c>
       <c r="G2" s="11">
-        <v>30.882352941176471</v>
+        <v>29.184549356223176</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="12">
-        <v>41778</v>
+        <v>42397</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="G3" s="11">
-        <v>30.275229357798164</v>
+        <v>3.0927835051546393</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="12">
-        <v>42167</v>
+        <v>42705</v>
       </c>
       <c r="E4" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="11">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="G4" s="11">
-        <v>31.670281995661604</v>
+        <v>37.623762376237622</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="12">
-        <v>42397</v>
+        <v>42865</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="11">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="G5" s="11">
-        <v>39.91769547325103</v>
+        <v>16.761904761904763</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="12">
-        <v>42705</v>
+        <v>43124</v>
       </c>
       <c r="E6" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="11">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="G6" s="11">
-        <v>26.877470355731226</v>
+        <v>64.726027397260268</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="12">
-        <v>42865</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>259</v>
-      </c>
-      <c r="G7" s="11">
-        <v>27.376425855513308</v>
+        <v>43334</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12">
-        <v>43124</v>
-      </c>
-      <c r="E8" s="11">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>196</v>
-      </c>
-      <c r="G8" s="11">
-        <v>28.034188034188034</v>
+      <c r="G8" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="12">
-        <v>43320</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -967,57 +994,57 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1025,811 +1052,811 @@
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1856,16 +1883,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1873,13 +1900,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>956</v>
+        <v>567</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>32.596452638622125</v>
+        <v>9.3367030915713638</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1887,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>508</v>
+        <v>160</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>29.620972599303954</v>
+        <v>37.623762376237622</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1901,13 +1928,13 @@
         <v>-1</v>
       </c>
       <c r="B4">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>29.997337356110386</v>
+        <v>47.16939366614556</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1921,15 +1948,15 @@
       </c>
       <c r="H7" s="3" t="str">
         <f>IF(AND(D4&gt;0,D4&lt;30),ROUND(D4,2)&amp;"%","")</f>
-        <v>30%</v>
+        <v/>
       </c>
       <c r="I7" s="4" t="str">
         <f>IF(AND(D3&gt;0,D3&lt;30),ROUND(D3,2)&amp;"%","")</f>
-        <v>29.62%</v>
+        <v/>
       </c>
       <c r="J7" s="2" t="str">
         <f>IF(AND(D2&gt;0,D2&lt;30),ROUND(D2,2)&amp;"%","")</f>
-        <v/>
+        <v>9.34%</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1938,15 +1965,15 @@
       </c>
       <c r="H8" s="5" t="str">
         <f>IF(AND(D4&gt;=30,D4&lt;50),ROUND(D4,2)&amp;"%","")</f>
-        <v/>
+        <v>47.17%</v>
       </c>
       <c r="I8" s="6" t="str">
         <f>IF(AND(D3&gt;=30,D3&lt;50),ROUND(D3,2)&amp;"%","")</f>
-        <v/>
+        <v>37.62%</v>
       </c>
       <c r="J8" s="7" t="str">
         <f>IF(AND(D2&gt;=30,D2&lt;50),ROUND(D2,2)&amp;"%","")</f>
-        <v>32.6%</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/singleFundStyle.xlsx
+++ b/singleFundStyle.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="27">
   <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,95 +55,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛熊市（1：牛，0：震荡市，-1：熊）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>平均排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛熊市（1：牛，0：震荡市，-1：熊）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180031.OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华中小盘精选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fund setup date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bull_bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundmanagers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖平(20120620-20130806)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金斌(20120620-20130719)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王华(20130806-20160708)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晓星(20150707至今)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>经历几个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180031.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银华中小盘精选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fund setup date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bull_bear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundmanagers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖平(20120620-20130806)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金斌(20120620-20130719)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王华(20130806-20160708)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李晓星(20150707至今)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,39 +689,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="H1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="12">
         <v>41080</v>
@@ -742,77 +730,77 @@
         <v>42192</v>
       </c>
       <c r="E2" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="11">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="G2" s="11">
-        <v>29.184549356223176</v>
+        <v>19.35483870967742</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12">
-        <v>42397</v>
+        <v>42331</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>308</v>
+        <v>449</v>
       </c>
       <c r="G3" s="11">
-        <v>3.0927835051546393</v>
+        <v>12.240663900414937</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="12">
-        <v>42705</v>
+        <v>42780</v>
       </c>
       <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="11">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="G4" s="11">
-        <v>37.623762376237622</v>
+        <v>38.011695906432749</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -820,376 +808,376 @@
         <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="12">
-        <v>42865</v>
+        <v>42888</v>
       </c>
       <c r="E5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="11">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="G5" s="11">
-        <v>16.761904761904763</v>
+        <v>34.724857685009489</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="12">
-        <v>43124</v>
+        <v>42983</v>
       </c>
       <c r="E6" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="11">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G6" s="11">
-        <v>64.726027397260268</v>
+        <v>20.109689213893969</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="12">
-        <v>43334</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
+        <v>43187</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>147</v>
+      </c>
+      <c r="G7" s="11">
+        <v>64.448051948051955</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="12">
+        <v>43334</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1197,666 +1185,666 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +1858,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1886,13 +1874,13 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1900,13 +1888,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>9.3367030915713638</v>
+        <v>16.167131565004059</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1914,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>160</v>
+        <v>459</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>37.623762376237622</v>
+        <v>33.782915138138748</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1928,13 +1916,13 @@
         <v>-1</v>
       </c>
       <c r="B4">
-        <v>415</v>
+        <v>139</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>47.16939366614556</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1948,7 +1936,7 @@
       </c>
       <c r="H7" s="3" t="str">
         <f>IF(AND(D4&gt;0,D4&lt;30),ROUND(D4,2)&amp;"%","")</f>
-        <v/>
+        <v>19.35%</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>IF(AND(D3&gt;0,D3&lt;30),ROUND(D3,2)&amp;"%","")</f>
@@ -1956,7 +1944,7 @@
       </c>
       <c r="J7" s="2" t="str">
         <f>IF(AND(D2&gt;0,D2&lt;30),ROUND(D2,2)&amp;"%","")</f>
-        <v>9.34%</v>
+        <v>16.17%</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1965,11 +1953,11 @@
       </c>
       <c r="H8" s="5" t="str">
         <f>IF(AND(D4&gt;=30,D4&lt;50),ROUND(D4,2)&amp;"%","")</f>
-        <v>47.17%</v>
+        <v/>
       </c>
       <c r="I8" s="6" t="str">
         <f>IF(AND(D3&gt;=30,D3&lt;50),ROUND(D3,2)&amp;"%","")</f>
-        <v>37.62%</v>
+        <v>33.78%</v>
       </c>
       <c r="J8" s="7" t="str">
         <f>IF(AND(D2&gt;=30,D2&lt;50),ROUND(D2,2)&amp;"%","")</f>
